--- a/outputs/NUTRITION/club_creation.xlsx
+++ b/outputs/NUTRITION/club_creation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="193">
   <si>
     <t>caseid</t>
   </si>
@@ -184,6 +184,48 @@
     <t>98cd870e-c9dc-49c4-a5a0-ba96e2e0c11f</t>
   </si>
   <si>
+    <t>a2829277-c419-48a2-a6b5-a2f85977c061</t>
+  </si>
+  <si>
+    <t>5143373e-51a6-4e1e-9bf7-a903b369ef47</t>
+  </si>
+  <si>
+    <t>12eef07a-2dd4-497b-904c-34a26728524b</t>
+  </si>
+  <si>
+    <t>847db8dd-a292-4049-9e0f-3f20adec8d1a</t>
+  </si>
+  <si>
+    <t>ffd07fc8-3692-478d-a646-e8309cde1698</t>
+  </si>
+  <si>
+    <t>db466c22-4bf8-430b-8ae7-fd8e3847e85e</t>
+  </si>
+  <si>
+    <t>64491835-ff20-46e8-98b7-6047a8e3635c</t>
+  </si>
+  <si>
+    <t>a4493ef7-1d43-4851-947e-eb1d68fe9c6b</t>
+  </si>
+  <si>
+    <t>ddb96c49-e231-4219-8163-2a9180099eb8</t>
+  </si>
+  <si>
+    <t>6fc3f6c2-a94e-4903-a3b7-82da40bbd1e2</t>
+  </si>
+  <si>
+    <t>3ef5ff17-2c6f-4902-858a-33ac62f51ff0</t>
+  </si>
+  <si>
+    <t>976e93e4-656e-4b31-bfc5-8e5486aa655d</t>
+  </si>
+  <si>
+    <t>2bcea798-d972-480a-a67c-4b9f0463cae4</t>
+  </si>
+  <si>
+    <t>075f7a15-7c06-4f73-a8aa-bac34b852ad8</t>
+  </si>
+  <si>
     <t>2025-06-10</t>
   </si>
   <si>
@@ -277,6 +319,21 @@
     <t>2026-01-13</t>
   </si>
   <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
     <t>Santé nan Asyèt</t>
   </si>
   <si>
@@ -424,6 +481,48 @@
     <t>Timoun se riches de Mansui</t>
   </si>
   <si>
+    <t>Timoun se lavni</t>
+  </si>
+  <si>
+    <t>Solidarite de Bazin 2</t>
+  </si>
+  <si>
+    <t>la sante ki bay</t>
+  </si>
+  <si>
+    <t>Galaxy de Lizo</t>
+  </si>
+  <si>
+    <t>Cheche lavi de Mon voisin</t>
+  </si>
+  <si>
+    <t>Timoun an sante de Ti Laurier</t>
+  </si>
+  <si>
+    <t>Club des Enfants bien Nourris</t>
+  </si>
+  <si>
+    <t>Lasante se riches de Gayard</t>
+  </si>
+  <si>
+    <t>Club Pwoteje Timoun yo de Gayard</t>
+  </si>
+  <si>
+    <t>Club lavi Timoun yo dee Trou-du-nord</t>
+  </si>
+  <si>
+    <t>Club fleur des enfants d Trou-du-nord</t>
+  </si>
+  <si>
+    <t>Club Timoun se lespwa de Trou-du-nord</t>
+  </si>
+  <si>
+    <t>Club sante timoun yo de site Lavalas/ Trou-du-nord</t>
+  </si>
+  <si>
+    <t>Club cerise de Moussignac</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
@@ -476,6 +575,12 @@
   </si>
   <si>
     <t>Kenscoff</t>
+  </si>
+  <si>
+    <t>Plaine du Nord</t>
+  </si>
+  <si>
+    <t>Ouanaminthe</t>
   </si>
   <si>
     <t>NORD</t>
@@ -845,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,19 +981,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -896,19 +1001,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -916,19 +1021,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -936,19 +1041,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -956,19 +1061,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -976,19 +1081,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -996,19 +1101,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1016,19 +1121,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1036,19 +1141,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1056,19 +1161,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1076,19 +1181,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1096,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1116,19 +1221,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1136,19 +1241,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1156,19 +1261,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1176,19 +1281,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1196,19 +1301,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1216,19 +1321,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1236,19 +1341,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1256,19 +1361,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1276,19 +1381,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1296,19 +1401,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1316,19 +1421,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1336,19 +1441,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1356,19 +1461,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1376,19 +1481,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1396,19 +1501,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1416,19 +1521,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1436,19 +1541,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1456,19 +1561,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1476,19 +1581,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1496,19 +1601,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1516,19 +1621,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1536,19 +1641,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1556,19 +1661,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1576,19 +1681,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1596,19 +1701,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1616,19 +1721,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1636,19 +1741,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1656,19 +1761,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1676,19 +1781,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1696,19 +1801,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1716,19 +1821,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1736,19 +1841,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1756,19 +1861,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1776,19 +1881,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1796,19 +1901,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1816,19 +1921,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1836,19 +1941,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1856,19 +1961,299 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
